--- a/Laporan_Tuning.xlsx
+++ b/Laporan_Tuning.xlsx
@@ -508,199 +508,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.18096909126283</v>
+        <v>628.9656117637007</v>
       </c>
       <c r="D2" t="n">
-        <v>51.75712573096654</v>
+        <v>144.6250668840931</v>
       </c>
       <c r="E2" t="n">
-        <v>19.34839081843434</v>
+        <v>712.1430441140761</v>
       </c>
       <c r="F2" t="n">
-        <v>102</v>
+        <v>701</v>
       </c>
       <c r="G2" t="n">
-        <v>47.05882352941176</v>
+        <v>39.37232524964337</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22824946364218</v>
+        <v>3.418825884393496</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.637426849365649</v>
+        <v>-14.1483000427397</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>13.7370919641113</v>
+        <v>71.09755890925018</v>
       </c>
       <c r="N2" t="n">
-        <v>5.443877127151536</v>
+        <v>557.8680528544505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.79173137752518</v>
+        <v>318.0214534216482</v>
       </c>
       <c r="D3" t="n">
-        <v>26.37338127093923</v>
+        <v>142.4566774858994</v>
       </c>
       <c r="E3" t="n">
-        <v>17.43232252608664</v>
+        <v>354.2802817637495</v>
       </c>
       <c r="F3" t="n">
-        <v>99</v>
+        <v>2179</v>
       </c>
       <c r="G3" t="n">
-        <v>41.41414141414141</v>
+        <v>28.45341899954107</v>
       </c>
       <c r="H3" t="n">
-        <v>1.931229510360881</v>
+        <v>1.952250169325717</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.650298228257745</v>
+        <v>-16.36962414978769</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.117340241470247</v>
+        <v>70.96952891785008</v>
       </c>
       <c r="N3" t="n">
-        <v>20.90907161899543</v>
+        <v>247.0519245037981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.57531284736635</v>
+        <v>281.220144360901</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.72464920782468</v>
+        <v>757.2581602373887</v>
       </c>
       <c r="E4" t="n">
-        <v>11.67312211363587</v>
+        <v>309.1704645380219</v>
       </c>
       <c r="F4" t="n">
-        <v>128</v>
+        <v>725</v>
       </c>
       <c r="G4" t="n">
-        <v>38.28125</v>
+        <v>39.31034482758621</v>
       </c>
       <c r="H4" t="n">
-        <v>1.373755653386286</v>
+        <v>3.356911457874984</v>
       </c>
       <c r="I4" t="n">
-        <v>-8.679329653326617</v>
+        <v>-14.20943694483882</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>3.61518048988346</v>
+        <v>125.8492114430998</v>
       </c>
       <c r="N4" t="n">
-        <v>7.960132357482889</v>
+        <v>155.3709329178013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.81720803745267</v>
+        <v>236.4848964604498</v>
       </c>
       <c r="D5" t="n">
-        <v>3.565114974995466</v>
+        <v>699.6457041629762</v>
       </c>
       <c r="E5" t="n">
-        <v>10.90830341189777</v>
+        <v>260.9129517348433</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>43.32247557003257</v>
       </c>
       <c r="H5" t="n">
-        <v>1.791922001810217</v>
+        <v>3.462810063328516</v>
       </c>
       <c r="I5" t="n">
-        <v>-10.89930922080765</v>
+        <v>-23.26191614844083</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>2.316933799629242</v>
+        <v>116.85342659375</v>
       </c>
       <c r="N5" t="n">
-        <v>8.500274237823433</v>
+        <v>119.6314698666998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -709,25 +709,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.505964644470279</v>
+        <v>181.2405080039499</v>
       </c>
       <c r="D6" t="n">
-        <v>7.318797367479481</v>
+        <v>775.8246022506792</v>
       </c>
       <c r="E6" t="n">
-        <v>9.055905819139509</v>
+        <v>207.4620252384786</v>
       </c>
       <c r="F6" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>44.66019417475729</v>
+        <v>46.90265486725664</v>
       </c>
       <c r="H6" t="n">
-        <v>1.500616827401917</v>
+        <v>2.856938609033135</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.790219487497618</v>
+        <v>-32.32087239688113</v>
       </c>
       <c r="J6" t="n">
         <v>1.5</v>
@@ -736,46 +736,46 @@
         <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.233442926177959</v>
+        <v>144.67512103365</v>
       </c>
       <c r="N6" t="n">
-        <v>7.27252171829232</v>
+        <v>36.5653869702999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.31652028961169</v>
+        <v>171.5519429516501</v>
       </c>
       <c r="D7" t="n">
-        <v>6.167904942062583</v>
+        <v>232.2942779291553</v>
       </c>
       <c r="E7" t="n">
-        <v>38.07033550909609</v>
+        <v>195.9743175391787</v>
       </c>
       <c r="F7" t="n">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="G7" t="n">
-        <v>41.78403755868544</v>
+        <v>52.75590551181102</v>
       </c>
       <c r="H7" t="n">
-        <v>1.599863589485862</v>
+        <v>4.131573238909507</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.569901840713929</v>
+        <v>-13.42194157302589</v>
       </c>
       <c r="J7" t="n">
         <v>1.5</v>
@@ -784,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>2.657140068969657</v>
+        <v>66.72409460780003</v>
       </c>
       <c r="N7" t="n">
-        <v>5.659380220642033</v>
+        <v>104.82784834385</v>
       </c>
     </row>
     <row r="8">
@@ -801,80 +801,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>30m</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.208909888152994</v>
+        <v>156.5111798911002</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.45134285688674</v>
+        <v>693.1473753569076</v>
       </c>
       <c r="E8" t="n">
-        <v>33.95832123974365</v>
+        <v>173.4275799058726</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="G8" t="n">
-        <v>48.21428571428572</v>
+        <v>43.22033898305085</v>
       </c>
       <c r="H8" t="n">
-        <v>3.683024806182249</v>
+        <v>2.755787370743421</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.779300556116716</v>
+        <v>-37.77356843316809</v>
       </c>
       <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
       <c r="M8" t="n">
-        <v>6.355240681152355</v>
+        <v>98.92569671375011</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8536692070006389</v>
+        <v>57.58548317735011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.042668100051906</v>
+        <v>138.3986415926998</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.475927649512223</v>
+        <v>172.9094213787872</v>
       </c>
       <c r="E9" t="n">
-        <v>33.73440192918142</v>
+        <v>148.0419349859052</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>713</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>39.27068723702665</v>
       </c>
       <c r="H9" t="n">
-        <v>2.813583792339152</v>
+        <v>2.313099017816233</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.038990446616732</v>
+        <v>-9.835691462294694</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>15</v>
@@ -883,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>4.785766964035028</v>
+        <v>24.86401114560011</v>
       </c>
       <c r="N9" t="n">
-        <v>2.256901136016878</v>
+        <v>113.5346304470997</v>
       </c>
     </row>
     <row r="10">
@@ -897,173 +897,173 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30m</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.81082912544247</v>
+        <v>126.5816746081021</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.94062041465885</v>
+        <v>749.254104108883</v>
       </c>
       <c r="E10" t="n">
-        <v>27.60611359282774</v>
+        <v>138.3886706820991</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>2263</v>
       </c>
       <c r="G10" t="n">
-        <v>35.8974358974359</v>
+        <v>27.70658418029165</v>
       </c>
       <c r="H10" t="n">
-        <v>2.686317030676598</v>
+        <v>1.856952832569414</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.316603781650473</v>
+        <v>-20.23886367674958</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>3.510630802230789</v>
+        <v>-4.106474361850087</v>
       </c>
       <c r="N10" t="n">
-        <v>2.30019832321168</v>
+        <v>130.6881489699522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>30m</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.55567131881713</v>
+        <v>122.8044914380499</v>
       </c>
       <c r="D11" t="n">
-        <v>5.299541596759587</v>
+        <v>163.7774580866486</v>
       </c>
       <c r="E11" t="n">
-        <v>5.601338935595845</v>
+        <v>133.5554766774991</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>47.42857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>3.060647976565714</v>
+        <v>3.052352093476471</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.526985198748511</v>
+        <v>-10.85117533879492</v>
       </c>
       <c r="J11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>30</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.09850156448363123</v>
+        <v>80.02730157780013</v>
       </c>
       <c r="N11" t="n">
-        <v>5.457169754333499</v>
+        <v>42.77718986024979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>30m</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.158711863403369</v>
+        <v>122.32649770485</v>
       </c>
       <c r="D12" t="n">
-        <v>12.0241963111035</v>
+        <v>214.4389438943895</v>
       </c>
       <c r="E12" t="n">
-        <v>5.20103671923382</v>
+        <v>134.7016028556812</v>
       </c>
       <c r="F12" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="G12" t="n">
-        <v>40.50632911392405</v>
+        <v>38.125</v>
       </c>
       <c r="H12" t="n">
-        <v>1.530446922872446</v>
+        <v>3.480933141766858</v>
       </c>
       <c r="I12" t="n">
-        <v>-4.499812078069931</v>
+        <v>-16.77990322814834</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.11377836944579</v>
+        <v>18.16275480470007</v>
       </c>
       <c r="N12" t="n">
-        <v>7.272490232849159</v>
+        <v>104.1637429001499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.916831342926016</v>
+        <v>116.7335895275</v>
       </c>
       <c r="D13" t="n">
-        <v>5.239921172661502</v>
+        <v>163.9856025472416</v>
       </c>
       <c r="E13" t="n">
-        <v>248.7063047436345</v>
+        <v>125.6895196539947</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>45.25547445255474</v>
       </c>
       <c r="H13" t="n">
-        <v>3.098661767213125</v>
+        <v>2.661386236152423</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.37781871553836</v>
+        <v>-16.91845798607761</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
@@ -1072,19 +1072,19 @@
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.853047478179906</v>
+        <v>87.8466009538497</v>
       </c>
       <c r="N13" t="n">
-        <v>2.06378386474611</v>
+        <v>28.88698857365034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1093,382 +1093,382 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.025333191223235</v>
+        <v>115.2731923867998</v>
       </c>
       <c r="D14" t="n">
-        <v>7.006214265928875</v>
+        <v>124.0873867986183</v>
       </c>
       <c r="E14" t="n">
-        <v>13.95520668873555</v>
+        <v>126.7595263277391</v>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="G14" t="n">
-        <v>38.09523809523809</v>
+        <v>40.84507042253522</v>
       </c>
       <c r="H14" t="n">
-        <v>2.459859817284511</v>
+        <v>2.930198298618411</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.045959712587131</v>
+        <v>-11.34929773279828</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.582958770065306</v>
+        <v>86.67925965900008</v>
       </c>
       <c r="N14" t="n">
-        <v>1.442374421157929</v>
+        <v>28.59393272779977</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30m</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.942398691024773</v>
+        <v>104.19796813555</v>
       </c>
       <c r="D15" t="n">
-        <v>21.1293547467251</v>
+        <v>138.306800495895</v>
       </c>
       <c r="E15" t="n">
-        <v>13.67893359741885</v>
+        <v>104.9067715606345</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="G15" t="n">
-        <v>33.33333333333333</v>
+        <v>44.9685534591195</v>
       </c>
       <c r="H15" t="n">
-        <v>1.713985274716954</v>
+        <v>2.1939952990803</v>
       </c>
       <c r="I15" t="n">
-        <v>-4.53692622457541</v>
+        <v>-33.0085735787146</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
         <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7016856407165688</v>
+        <v>41.41916327745</v>
       </c>
       <c r="N15" t="n">
-        <v>2.240713050308204</v>
+        <v>62.7788048581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.732307756576556</v>
+        <v>87.20763304450017</v>
       </c>
       <c r="D16" t="n">
-        <v>19.55751356389761</v>
+        <v>77.12652258997817</v>
       </c>
       <c r="E16" t="n">
-        <v>11.98750920914316</v>
+        <v>94.46319681713295</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="G16" t="n">
-        <v>54.54545454545454</v>
+        <v>45.91439688715953</v>
       </c>
       <c r="H16" t="n">
-        <v>1.912739601999859</v>
+        <v>2.950949494122226</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.365251570568527</v>
+        <v>-9.404656186455906</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
-        <v>1.016058919601492</v>
+        <v>45.50360726804996</v>
       </c>
       <c r="N16" t="n">
-        <v>1.716248836975064</v>
+        <v>41.70402577645021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.70930258247372</v>
+        <v>86.21370931535003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1725059780171464</v>
+        <v>224.8761255261335</v>
       </c>
       <c r="E17" t="n">
-        <v>11.88222051267649</v>
+        <v>93.12711356242231</v>
       </c>
       <c r="F17" t="n">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="G17" t="n">
-        <v>40.11627906976744</v>
+        <v>38.28828828828829</v>
       </c>
       <c r="H17" t="n">
-        <v>1.675127670302304</v>
+        <v>2.163391589408468</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.974606743278162</v>
+        <v>-18.22021666563215</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8784842833710174</v>
+        <v>10.00045640260023</v>
       </c>
       <c r="N17" t="n">
-        <v>1.830818299102702</v>
+        <v>76.21325291274979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.689773849182238</v>
+        <v>85.84428302925015</v>
       </c>
       <c r="D18" t="n">
-        <v>1.734030474356296</v>
+        <v>183.5117454653583</v>
       </c>
       <c r="E18" t="n">
-        <v>12.00432918913699</v>
+        <v>94.91846870227086</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G18" t="n">
-        <v>42.85714285714285</v>
+        <v>52.67857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>1.72399887280057</v>
+        <v>2.538319613681241</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.009620918569487</v>
+        <v>-11.22563911708633</v>
       </c>
       <c r="J18" t="n">
         <v>1.5</v>
       </c>
       <c r="K18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.333943889160255</v>
+        <v>44.33382316694997</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3558299600219832</v>
+        <v>41.51045986230018</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>30m</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.677799198303146</v>
+        <v>78.74319596769998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7831151797457896</v>
+        <v>74.25334706488157</v>
       </c>
       <c r="E19" t="n">
-        <v>11.73816009861592</v>
+        <v>85.92159021804629</v>
       </c>
       <c r="F19" t="n">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="G19" t="n">
-        <v>38.65546218487395</v>
+        <v>47.13375796178344</v>
       </c>
       <c r="H19" t="n">
-        <v>2.169155993213058</v>
+        <v>2.927939771495342</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.526124291493358</v>
+        <v>-20.94158661757062</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>2.242747633972249</v>
+        <v>34.23083390724997</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4350515643308972</v>
+        <v>44.51236206045001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.648113705444211</v>
+        <v>77.06053941705002</v>
       </c>
       <c r="D20" t="n">
-        <v>5.7985656880321</v>
+        <v>136.9173399627098</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8103796620084</v>
+        <v>85.99942080576007</v>
       </c>
       <c r="F20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" t="n">
-        <v>46.66666666666666</v>
+        <v>47.54098360655738</v>
       </c>
       <c r="H20" t="n">
-        <v>2.358705263217132</v>
+        <v>3.413307297242136</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.27548635213607</v>
+        <v>-12.4231079289332</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>1.591822504882712</v>
+        <v>22.1030365392999</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0562912005615</v>
+        <v>54.95750287775012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.389765457000685</v>
+        <v>61.99269056334995</v>
       </c>
       <c r="D21" t="n">
-        <v>9.713484512651178</v>
+        <v>80.15297431083272</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6133714020354</v>
+        <v>66.55672211389702</v>
       </c>
       <c r="F21" t="n">
-        <v>92</v>
+        <v>805</v>
       </c>
       <c r="G21" t="n">
-        <v>44.56521739130434</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="H21" t="n">
-        <v>1.13830796368339</v>
+        <v>2.090204084284329</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.529362065312536</v>
+        <v>-9.278136876244513</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>-4.631646401214639</v>
+        <v>27.50003937799986</v>
       </c>
       <c r="N21" t="n">
-        <v>7.021411858215324</v>
+        <v>34.4926511853501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.178193581314081</v>
+        <v>50.69386721415012</v>
       </c>
       <c r="D22" t="n">
-        <v>20.87272265186611</v>
+        <v>101.8488153845283</v>
       </c>
       <c r="E22" t="n">
-        <v>9.640423506413942</v>
+        <v>54.65624100663584</v>
       </c>
       <c r="F22" t="n">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="G22" t="n">
-        <v>33.84615384615385</v>
+        <v>39.38053097345133</v>
       </c>
       <c r="H22" t="n">
-        <v>1.431920059200528</v>
+        <v>3.704878661181154</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.876629119987463</v>
+        <v>-10.98020126088092</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
         <v>20</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>1.781301136856091</v>
+        <v>17.06658995584992</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3968924444579895</v>
+        <v>33.6272772583002</v>
       </c>
     </row>
     <row r="23">
@@ -1521,44 +1521,44 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.133853627319295</v>
+        <v>44.69382868560011</v>
       </c>
       <c r="D23" t="n">
-        <v>7.983790627299523</v>
+        <v>82.7459153365014</v>
       </c>
       <c r="E23" t="n">
-        <v>9.27298789082176</v>
+        <v>49.37637149378269</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="G23" t="n">
-        <v>46.34146341463415</v>
+        <v>47.70642201834863</v>
       </c>
       <c r="H23" t="n">
-        <v>2.608130054895834</v>
+        <v>2.188613423842961</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.763328958454635</v>
+        <v>-18.39780294295297</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.3715618847657424</v>
+        <v>37.34454844534999</v>
       </c>
       <c r="N23" t="n">
-        <v>2.505415512085037</v>
+        <v>7.349280240250117</v>
       </c>
     </row>
     <row r="24">
@@ -1569,50 +1569,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.084844902801433</v>
+        <v>43.99568138280006</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.1948910936527</v>
+        <v>91.80953510905461</v>
       </c>
       <c r="E24" t="n">
-        <v>8.840739909936769</v>
+        <v>48.593661185963</v>
       </c>
       <c r="F24" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="G24" t="n">
-        <v>35.29411764705883</v>
+        <v>55.35714285714286</v>
       </c>
       <c r="H24" t="n">
-        <v>1.516696055577315</v>
+        <v>4.03947446324677</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.049858964208028</v>
+        <v>-11.27696904022755</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.219850998840339</v>
+        <v>17.21258247245005</v>
       </c>
       <c r="N24" t="n">
-        <v>3.304695901641771</v>
+        <v>26.78309891035002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1621,46 +1621,46 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.877329258728059</v>
+        <v>37.24975930975011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2404331934976136</v>
+        <v>126.086096970296</v>
       </c>
       <c r="E25" t="n">
-        <v>8.47657761975713</v>
+        <v>40.22789387329064</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="G25" t="n">
-        <v>44.73684210526316</v>
+        <v>43.00518134715026</v>
       </c>
       <c r="H25" t="n">
-        <v>2.210613641937187</v>
+        <v>1.714290590598095</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.148782000713477</v>
+        <v>-11.3103194705462</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="n">
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3529353222656391</v>
+        <v>6.878354929200049</v>
       </c>
       <c r="N25" t="n">
-        <v>1.52439393646242</v>
+        <v>30.37140438055006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1669,238 +1669,238 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.601104346008306</v>
+        <v>36.45638284424999</v>
       </c>
       <c r="D26" t="n">
-        <v>5.611478142012224</v>
+        <v>80.08316574769174</v>
       </c>
       <c r="E26" t="n">
-        <v>6.642785191962597</v>
+        <v>39.36251675166282</v>
       </c>
       <c r="F26" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G26" t="n">
-        <v>39.58333333333333</v>
+        <v>52.05479452054794</v>
       </c>
       <c r="H26" t="n">
-        <v>1.142100516328364</v>
+        <v>5.552248523420248</v>
       </c>
       <c r="I26" t="n">
-        <v>-4.877690791088929</v>
+        <v>-4.432651367077433</v>
       </c>
       <c r="J26" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.42552542892452</v>
+        <v>10.74856336650004</v>
       </c>
       <c r="N26" t="n">
-        <v>4.026629774932826</v>
+        <v>25.70781947774995</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.600054650573675</v>
+        <v>36.10708424064969</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.010617047103123</v>
+        <v>222.795129698253</v>
       </c>
       <c r="E27" t="n">
-        <v>7.015161120606095</v>
+        <v>38.40855859048933</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>750</v>
       </c>
       <c r="G27" t="n">
-        <v>47.45762711864407</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1.613980932605132</v>
+        <v>1.545831312894213</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.231330528185903</v>
+        <v>-8.094504761533628</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.8730302523803221</v>
+        <v>7.29676802345015</v>
       </c>
       <c r="N27" t="n">
-        <v>2.473084902953997</v>
+        <v>28.81031621719954</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>30m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.359491139450092</v>
+        <v>33.74642569304993</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2295389788260992</v>
+        <v>109.6988033723144</v>
       </c>
       <c r="E28" t="n">
-        <v>5.956843432298253</v>
+        <v>37.14140036026268</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G28" t="n">
-        <v>42.5</v>
+        <v>52.68817204301075</v>
       </c>
       <c r="H28" t="n">
-        <v>1.388055058444875</v>
+        <v>2.893569452670638</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.520245994563618</v>
+        <v>-13.69092958015097</v>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.475213957519572</v>
+        <v>21.68234862339996</v>
       </c>
       <c r="N28" t="n">
-        <v>2.834705096969665</v>
+        <v>12.06407706964997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.243945700378481</v>
+        <v>33.15189592439982</v>
       </c>
       <c r="D29" t="n">
-        <v>1.247970032496979</v>
+        <v>169.1156961810946</v>
       </c>
       <c r="E29" t="n">
-        <v>5.422246308194234</v>
+        <v>35.67231836734774</v>
       </c>
       <c r="F29" t="n">
-        <v>62</v>
+        <v>885</v>
       </c>
       <c r="G29" t="n">
-        <v>30.64516129032258</v>
+        <v>31.07344632768362</v>
       </c>
       <c r="H29" t="n">
-        <v>1.720194645318527</v>
+        <v>1.600980565879659</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.362356385100594</v>
+        <v>-8.994799531113717</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M29" t="n">
-        <v>1.021578261718823</v>
+        <v>-14.76239621730041</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2223674386596577</v>
+        <v>47.91429214170023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5m</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9804572889709562</v>
+        <v>29.24603039599977</v>
       </c>
       <c r="D30" t="n">
-        <v>-20.92988301166624</v>
+        <v>78.47286108555657</v>
       </c>
       <c r="E30" t="n">
-        <v>4.182985573890785</v>
+        <v>31.08744352157355</v>
       </c>
       <c r="F30" t="n">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="G30" t="n">
-        <v>37.5</v>
+        <v>31.88976377952756</v>
       </c>
       <c r="H30" t="n">
-        <v>1.191892817836888</v>
+        <v>2.124578000501073</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.933810349861688</v>
+        <v>-13.51388674615684</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2265592105103679</v>
+        <v>7.089170374250044</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7538980784605883</v>
+        <v>22.15686002174972</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1909,46 +1909,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5616792083740438</v>
+        <v>28.74587422469993</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.506170098952818</v>
+        <v>99.46645109135005</v>
       </c>
       <c r="E31" t="n">
-        <v>2.507179598434228</v>
+        <v>30.97031370205836</v>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="G31" t="n">
-        <v>37.83783783783784</v>
+        <v>42.58064516129032</v>
       </c>
       <c r="H31" t="n">
-        <v>1.234992454713587</v>
+        <v>1.842706039989544</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.015764148812926</v>
+        <v>-16.74198869970536</v>
       </c>
       <c r="J31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.446569761505107</v>
+        <v>18.65054994115006</v>
       </c>
       <c r="N31" t="n">
-        <v>3.00824896987915</v>
+        <v>10.09532428354987</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1957,286 +1957,286 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3121238396453554</v>
+        <v>23.46548009649976</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.616971798028167</v>
+        <v>80.13725884217629</v>
       </c>
       <c r="E32" t="n">
-        <v>15.6169857137211</v>
+        <v>25.10439532120663</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>853</v>
       </c>
       <c r="G32" t="n">
-        <v>46.66666666666666</v>
+        <v>31.06682297772567</v>
       </c>
       <c r="H32" t="n">
-        <v>1.865665529086075</v>
+        <v>1.837988787816314</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6787494033605457</v>
+        <v>-6.855881260952346</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>30</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.1885930399323115</v>
+        <v>-9.674451177449738</v>
       </c>
       <c r="N32" t="n">
-        <v>0.500716879577667</v>
+        <v>33.1399312739495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.1937084788513312</v>
+        <v>20.23407410355039</v>
       </c>
       <c r="D33" t="n">
-        <v>-5.162711309493033</v>
+        <v>106.5737988203275</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.55605501201035</v>
+        <v>21.51019590341254</v>
       </c>
       <c r="F33" t="n">
-        <v>34</v>
+        <v>916</v>
       </c>
       <c r="G33" t="n">
-        <v>32.35294117647059</v>
+        <v>35.37117903930131</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6730368355571075</v>
+        <v>1.447154229004218</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6002260454199049</v>
+        <v>-6.661959607987367</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.4242603176880221</v>
+        <v>9.569683555550093</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2305518388366909</v>
+        <v>10.6643905480003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.3102314805603601</v>
+        <v>19.17439038439952</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.012183249554493</v>
+        <v>135.2021718563613</v>
       </c>
       <c r="E34" t="n">
-        <v>-4.654149117772521</v>
+        <v>20.75845059471049</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>674</v>
       </c>
       <c r="G34" t="n">
-        <v>11.76470588235294</v>
+        <v>34.56973293768546</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5858426190839073</v>
+        <v>1.281855176300555</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.243571067793026</v>
+        <v>-14.32406547635223</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.9546811922073357</v>
+        <v>-3.67056853449998</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6444497116469756</v>
+        <v>22.8449589188995</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.4215473065185506</v>
+        <v>18.72747316554982</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.70358912557069</v>
+        <v>85.27715877591621</v>
       </c>
       <c r="E35" t="n">
-        <v>-14.10785424719259</v>
+        <v>19.84124510051753</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="G35" t="n">
-        <v>5.88235294117647</v>
+        <v>44.96644295302013</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1675008731450388</v>
+        <v>1.693584842461131</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5789539993217852</v>
+        <v>-11.03417952130582</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.9024273471068954</v>
+        <v>16.18181659669979</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4808800405883448</v>
+        <v>2.545656568850028</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.423617907257103</v>
+        <v>13.26515569320001</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.154084414996005</v>
+        <v>146.1112535247372</v>
       </c>
       <c r="E36" t="n">
-        <v>-14.17212729840795</v>
+        <v>14.48795623795533</v>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G36" t="n">
-        <v>13.33333333333333</v>
+        <v>43.66197183098591</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06505024320154365</v>
+        <v>1.786536324524786</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.6328602848155063</v>
+        <v>-24.35500095362051</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K36" t="n">
         <v>30</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.6092145761108805</v>
+        <v>-2.873631549350102</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1855966688537775</v>
+        <v>16.13878724255011</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>15m</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.5878393908691214</v>
+        <v>12.32939647805006</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.931966186282331</v>
+        <v>128.5691443647193</v>
       </c>
       <c r="E37" t="n">
-        <v>-16.24505546870757</v>
+        <v>13.15902893637748</v>
       </c>
       <c r="F37" t="n">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="G37" t="n">
-        <v>6.666666666666667</v>
+        <v>43.18181818181818</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002317483911250045</v>
+        <v>1.235715966730558</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.587839390869116</v>
+        <v>-10.55237163660924</v>
       </c>
       <c r="J37" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.415666631774948</v>
+        <v>11.94010670385011</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8278272409058264</v>
+        <v>0.3892897741999519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2245,76 +2245,76 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.72655173461917</v>
+        <v>2.169538695949959</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.207040705455638</v>
+        <v>221.196797302992</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.23754735182643</v>
+        <v>2.288887691543118</v>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>863</v>
       </c>
       <c r="G38" t="n">
-        <v>6.25</v>
+        <v>31.63383545770568</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08764035401886563</v>
+        <v>1.309804960630893</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.7349367376377369</v>
+        <v>-7.77652043224577</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
         <v>30</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.217161870574964</v>
+        <v>-35.01293099175034</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4906101359557943</v>
+        <v>37.1824696877003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.9207123875426623</v>
+        <v>-2.822501269899858</v>
       </c>
       <c r="D39" t="n">
-        <v>-21.495207246894</v>
+        <v>106.0700207122336</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.873725382789239</v>
+        <v>-2.853897463213551</v>
       </c>
       <c r="F39" t="n">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="G39" t="n">
-        <v>57.14285714285714</v>
+        <v>30.41916167664671</v>
       </c>
       <c r="H39" t="n">
-        <v>1.008894460136908</v>
+        <v>1.01411037586356</v>
       </c>
       <c r="I39" t="n">
-        <v>-3.943093370518325</v>
+        <v>-10.63335175049122</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
         <v>30</v>
@@ -2323,106 +2323,106 @@
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>-2.978607768325801</v>
+        <v>-30.24932909970003</v>
       </c>
       <c r="N39" t="n">
-        <v>2.057895380783139</v>
+        <v>27.42682782980017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>30m</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-2.140433893318205</v>
+        <v>-5.218111738350053</v>
       </c>
       <c r="D40" t="n">
-        <v>-21.1447111191925</v>
+        <v>134.372598326437</v>
       </c>
       <c r="E40" t="n">
-        <v>-9.122445417938829</v>
+        <v>-5.664906610653608</v>
       </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>699</v>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>27.8969957081545</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7349251078435608</v>
+        <v>0.9107331578553935</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.122465931537123</v>
+        <v>-15.64773921716998</v>
       </c>
       <c r="J40" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K40" t="n">
         <v>30</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>-4.33537139797214</v>
+        <v>-35.67349584349969</v>
       </c>
       <c r="N40" t="n">
-        <v>2.194937504653935</v>
+        <v>30.45538410514964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-4.227329531173782</v>
+        <v>-8.782987034599792</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.927310160815449</v>
+        <v>84.7620525715468</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.260417346919976</v>
+        <v>-9.055817700199654</v>
       </c>
       <c r="F41" t="n">
-        <v>46</v>
+        <v>731</v>
       </c>
       <c r="G41" t="n">
-        <v>28.26086956521739</v>
+        <v>28.86456908344733</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3822198918538098</v>
+        <v>0.8693619905419531</v>
       </c>
       <c r="I41" t="n">
-        <v>-5.604286903927303</v>
+        <v>-19.82372676295731</v>
       </c>
       <c r="J41" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K41" t="n">
         <v>30</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M41" t="n">
-        <v>-13.60112873878479</v>
+        <v>-37.71184635119987</v>
       </c>
       <c r="N41" t="n">
-        <v>9.373799207611009</v>
+        <v>28.92885931660008</v>
       </c>
     </row>
   </sheetData>
